--- a/TestProject1/ColumnWithStringNotNull.xlsx
+++ b/TestProject1/ColumnWithStringNotNull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CMI\BackEnd\TestProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DA4A41-F0BD-4158-AB11-F2B7BA437164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A3EEA9-AEB5-43D3-8E6D-92B45D180B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4845" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
     <t>Score1</t>
   </si>
   <si>
@@ -61,6 +52,15 @@
   </si>
   <si>
     <t>Score9</t>
+  </si>
+  <si>
+    <t>ستون اول</t>
+  </si>
+  <si>
+    <t>ستون دوم</t>
+  </si>
+  <si>
+    <t>ستون سوم</t>
   </si>
 </sst>
 </file>
@@ -381,53 +381,53 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
